--- a/DATOS POR DEFECTO.xlsx
+++ b/DATOS POR DEFECTO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t xml:space="preserve">NUMERO</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t xml:space="preserve">Pulido Alarcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevrolet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AX 480 FO</t>
   </si>
   <si>
     <t xml:space="preserve">Albano Anton</t>
@@ -555,8 +567,8 @@
   </sheetPr>
   <dimension ref="B2:N71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,10 +649,18 @@
         <v>10</v>
       </c>
       <c r="E5" s="0"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
@@ -652,10 +672,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="7"/>
@@ -673,10 +693,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="7"/>
@@ -694,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="7"/>
@@ -715,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="7"/>
@@ -736,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="7"/>
@@ -757,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="7"/>
@@ -778,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="7"/>
@@ -799,10 +819,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="7"/>
@@ -820,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="7"/>
@@ -841,10 +861,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="7"/>
@@ -862,10 +882,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="7"/>
@@ -883,10 +903,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="7"/>
@@ -904,10 +924,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="7"/>
@@ -925,10 +945,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E19" s="0"/>
       <c r="F19" s="7"/>
@@ -946,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="7"/>
@@ -967,10 +987,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="7"/>
@@ -988,10 +1008,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="7"/>
@@ -1009,10 +1029,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="7"/>
@@ -1030,10 +1050,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="7"/>
@@ -1052,7 +1072,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1065,15 +1085,15 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -1083,13 +1103,13 @@
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="0"/>
@@ -1156,7 +1176,7 @@
         <v>389</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G31" s="7" t="n">
         <v>6</v>
@@ -1179,7 +1199,7 @@
         <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G32" s="7" t="n">
         <v>4</v>
@@ -1199,10 +1219,10 @@
         <v>70</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="n">
         <v>1</v>
@@ -1222,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G34" s="7" t="n">
         <v>9</v>
@@ -1245,10 +1265,10 @@
         <v>37</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G35" s="7" t="n">
         <v>5</v>
@@ -1268,10 +1288,10 @@
         <v>33</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>4</v>
@@ -1291,10 +1311,10 @@
         <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>6</v>
@@ -1314,10 +1334,10 @@
         <v>58</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G38" s="7" t="n">
         <v>7</v>
@@ -1337,10 +1357,10 @@
         <v>58</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>5</v>
@@ -1360,10 +1380,10 @@
         <v>58</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G40" s="7" t="n">
         <v>4</v>
@@ -1383,10 +1403,10 @@
         <v>79</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G41" s="7" t="n">
         <v>0</v>
@@ -1406,10 +1426,10 @@
         <v>49</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G42" s="7" t="n">
         <v>0</v>
@@ -1429,10 +1449,10 @@
         <v>42</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G43" s="7" t="n">
         <v>5</v>
@@ -1452,10 +1472,10 @@
         <v>69</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G44" s="7" t="n">
         <v>7</v>
@@ -1475,10 +1495,10 @@
         <v>80</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G45" s="7" t="n">
         <v>5</v>
@@ -1498,10 +1518,10 @@
         <v>56</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G46" s="7" t="n">
         <v>3</v>
@@ -1521,10 +1541,10 @@
         <v>11</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G47" s="7" t="n">
         <v>1</v>
@@ -1556,7 +1576,7 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5"/>
       <c r="C50" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1564,13 +1584,13 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5"/>
       <c r="C51" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D52" s="7" t="n">
         <v>1670</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,13 +1612,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D53" s="7" t="n">
         <v>1739</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,13 +1626,13 @@
         <v>3</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D54" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,13 +1640,13 @@
         <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D55" s="7" t="n">
         <v>2248</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,13 +1654,13 @@
         <v>5</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D56" s="7" t="n">
         <v>265</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,13 +1668,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D57" s="7" t="n">
         <v>2306</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D58" s="7" t="n">
         <v>368</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,13 +1696,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D59" s="7" t="n">
         <v>50</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,13 +1710,13 @@
         <v>9</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D60" s="7" t="n">
         <v>1325</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,13 +1724,13 @@
         <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D61" s="7" t="n">
         <v>1780</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,13 +1738,13 @@
         <v>11</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D62" s="7" t="n">
         <v>945</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,13 +1752,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D63" s="7" t="n">
         <v>1070</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,13 +1766,13 @@
         <v>13</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D64" s="7" t="n">
         <v>701</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,13 +1780,13 @@
         <v>14</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D65" s="7" t="n">
         <v>480</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,13 +1794,13 @@
         <v>15</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D66" s="7" t="n">
         <v>611</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,13 +1808,13 @@
         <v>16</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D67" s="7" t="n">
         <v>5763</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,13 +1822,13 @@
         <v>17</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D68" s="7" t="n">
         <v>67</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,13 +1836,13 @@
         <v>18</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D69" s="7" t="n">
         <v>163</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,13 +1850,13 @@
         <v>19</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D70" s="7" t="n">
         <v>317</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,13 +1864,13 @@
         <v>20</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D71" s="7" t="n">
         <v>280</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
